--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21895.68274455852</v>
+        <v>22179.75717043075</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10713923.91809432</v>
+        <v>11000368.12960213</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21980028.75264426</v>
+        <v>21944061.10447885</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3515139.460758273</v>
+        <v>3516022.705486705</v>
       </c>
     </row>
     <row r="11">
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>74.8003045504001</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072632</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>59.9944890099195</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844597</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850063</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350712</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177092</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -25877,13 +25879,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>36.22203728504045</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,13 +25958,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>52.00608518301456</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>30.88817237036449</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>32.44152677383354</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>6.155510525861384</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T46" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>303995.6837096428</v>
+        <v>305525.1778033386</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45372.49010591685</v>
+        <v>45372.49010591686</v>
       </c>
       <c r="C2" t="n">
         <v>45372.49010591685</v>
       </c>
       <c r="D2" t="n">
-        <v>45372.49010591684</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="E2" t="n">
         <v>45372.49010591685</v>
@@ -26329,7 +26331,7 @@
         <v>45372.49010591685</v>
       </c>
       <c r="H2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="I2" t="n">
         <v>45372.49010591686</v>
@@ -26347,13 +26349,13 @@
         <v>45372.49010591686</v>
       </c>
       <c r="N2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="O2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="P2" t="n">
-        <v>45372.49010591686</v>
+        <v>48969.25492245724</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>141033.6035437909</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>31760.7430741418</v>
       </c>
       <c r="P4" t="n">
-        <v>31760.7430741418</v>
+        <v>11709.64826859524</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20015.85296822495</v>
+        <v>-20015.85296822494</v>
       </c>
       <c r="C6" t="n">
         <v>-20015.85296822495</v>
       </c>
       <c r="D6" t="n">
-        <v>-20015.85296822496</v>
+        <v>-20015.85296822495</v>
       </c>
       <c r="E6" t="n">
+        <v>13611.74703177504</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13611.74703177504</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13611.74703177504</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13611.74703177504</v>
+      </c>
+      <c r="I6" t="n">
         <v>13611.74703177505</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
+        <v>13611.74703177504</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13611.74703177504</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13611.74703177504</v>
+      </c>
+      <c r="M6" t="n">
         <v>13611.74703177505</v>
       </c>
-      <c r="G6" t="n">
-        <v>13611.74703177505</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13611.74703177506</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13611.74703177506</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13611.74703177505</v>
-      </c>
-      <c r="K6" t="n">
-        <v>13611.74703177505</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13611.74703177505</v>
-      </c>
-      <c r="M6" t="n">
-        <v>13611.74703177506</v>
-      </c>
       <c r="N6" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177504</v>
       </c>
       <c r="O6" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177504</v>
       </c>
       <c r="P6" t="n">
-        <v>13611.74703177506</v>
+        <v>-108393.3529923945</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>72.29949287753253</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>53.50986635406473</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3.728962489243122</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>15.69237727382505</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>98.96192827270181</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>87.03372251564269</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.397300547609682</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>44.39417280005286</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>59.89739605565818</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22179.75717043075</v>
+        <v>-100704.3378340494</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11000368.12960213</v>
+        <v>10713923.91809432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21944061.10447885</v>
+        <v>21980028.75264426</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3516022.705486705</v>
+        <v>3515139.460758273</v>
       </c>
     </row>
     <row r="11">
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>74.8003045504001</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K44" t="n">
-        <v>70.46480586072632</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L44" t="n">
-        <v>57.13228571623071</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M44" t="n">
-        <v>37.57934483655106</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N44" t="n">
-        <v>34.40083276460621</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>43.42807408235635</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P44" t="n">
-        <v>65.38007183670243</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.63342487673017</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>59.9944890099195</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>38.39792023795113</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>13.61350529844597</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>7.418125047647706</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>21.82048350850063</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.55545282356709</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11457,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>60.42909946350712</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L46" t="n">
-        <v>52.78454267318021</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M46" t="n">
-        <v>52.97980340177092</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N46" t="n">
-        <v>45.27133502328439</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O46" t="n">
-        <v>58.48650097449923</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P46" t="n">
-        <v>65.68959993062856</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -25879,13 +25879,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0910991671059</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>320.7690783136127</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>138.2481755487984</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>36.22203728504045</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>165.9452104078107</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3863943170558</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2683351220861</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25958,13 +25958,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>126.9854363758741</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>94.5366171262896</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>52.00608518301456</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.88817237036449</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>142.8056045053299</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>184.9611451887135</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2798590433917</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26037,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8484416772834</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>154.3816182209092</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>131.269940117466</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>32.44152677383354</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.155510525861384</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>130.8455323770033</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>204.9135390503414</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T46" t="n">
-        <v>229.2145141050582</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2974947811432</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>305525.1778033386</v>
+        <v>303995.6837096428</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>45372.49010591685</v>
+      </c>
+      <c r="C2" t="n">
         <v>45372.49010591686</v>
-      </c>
-      <c r="C2" t="n">
-        <v>45372.49010591685</v>
       </c>
       <c r="D2" t="n">
         <v>45372.49010591685</v>
@@ -26346,7 +26346,7 @@
         <v>45372.49010591685</v>
       </c>
       <c r="M2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="N2" t="n">
         <v>45372.49010591685</v>
@@ -26355,7 +26355,7 @@
         <v>45372.49010591685</v>
       </c>
       <c r="P2" t="n">
-        <v>48969.25492245724</v>
+        <v>45372.49010591685</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>141033.6035437909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>31760.7430741418</v>
       </c>
       <c r="P4" t="n">
-        <v>11709.64826859524</v>
+        <v>31760.7430741418</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4619.356102465596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20015.85296822494</v>
+        <v>-34669.20546998781</v>
       </c>
       <c r="C6" t="n">
-        <v>-20015.85296822495</v>
+        <v>-34669.20546998779</v>
       </c>
       <c r="D6" t="n">
-        <v>-20015.85296822495</v>
+        <v>-34669.20546998781</v>
       </c>
       <c r="E6" t="n">
-        <v>13611.74703177504</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="F6" t="n">
-        <v>13611.74703177504</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="G6" t="n">
-        <v>13611.74703177504</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="H6" t="n">
-        <v>13611.74703177504</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="I6" t="n">
-        <v>13611.74703177505</v>
+        <v>-1041.605469987804</v>
       </c>
       <c r="J6" t="n">
-        <v>13611.74703177504</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="K6" t="n">
-        <v>13611.74703177504</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="L6" t="n">
-        <v>13611.74703177504</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="M6" t="n">
-        <v>13611.74703177505</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="N6" t="n">
-        <v>13611.74703177504</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="O6" t="n">
-        <v>13611.74703177504</v>
+        <v>-1041.605469987811</v>
       </c>
       <c r="P6" t="n">
-        <v>-108393.3529923945</v>
+        <v>-1041.605469987811</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>211.8970689204402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>211.8970689204402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8518475132480001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>8.723983345051083</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>32.84085125449356</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.29949287753253</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>108.3581981133204</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>134.4279264468839</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>149.576969660608</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>151.9972814076239</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>143.5267226977641</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>122.4967372144541</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.98994814626005</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.50986635406473</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.41147520813882</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>3.728962489243122</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06814780105984</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4557786010741544</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4.401861752479334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.69237727382505</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>43.0610826567472</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>73.59824892871555</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>98.96192827270181</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>108.4413235634634</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>87.03372251564269</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.1797386213254</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>28.29825384563918</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>8.465887612057205</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.837107606961174</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02998543428119438</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3821094685450561</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.397300547609682</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>11.49107383588223</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.01513942613546</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>44.39417280005286</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>56.80925680532589</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>59.89739605565818</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>58.47316985471758</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>54.00943651762304</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>46.21440335930385</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.99645740698647</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.18103119476224</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>6.659125920007929</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.632649547419785</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02084233464791217</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
